--- a/src/assessment_client/examples/stat_raw_example.xlsx
+++ b/src/assessment_client/examples/stat_raw_example.xlsx
@@ -829,7 +829,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,6 +840,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -879,10 +885,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1456,7 +1462,7 @@
         <v>74</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="28.5">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1486,7 +1492,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="28.5">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1516,7 +1522,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="28.5">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1576,7 +1582,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="714.75">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -1606,7 +1612,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="28.5">
       <c r="A7" s="1" t="s">
         <v>54</v>
       </c>
@@ -1664,7 +1670,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="28.5">
       <c r="A9" s="1" t="s">
         <v>54</v>
       </c>

--- a/src/assessment_client/examples/stat_raw_example.xlsx
+++ b/src/assessment_client/examples/stat_raw_example.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="248">
   <si>
     <t>Имя</t>
   </si>
@@ -314,418 +314,427 @@
     <t>Рекомендация ИИ</t>
   </si>
   <si>
+    <t>Открытые вопросы</t>
+  </si>
+  <si>
+    <t>2025-12-12 09:10:19</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Мини кейсы</t>
+  </si>
+  <si>
+    <t>2025-12-12 09:07:36</t>
+  </si>
+  <si>
+    <t>Большие кейсы</t>
+  </si>
+  <si>
+    <t>2025-12-12 09:05:58</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:36:37</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:35:19</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:33:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дилеммы </t>
+  </si>
+  <si>
+    <t>#26 опрос №6</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:31:18</t>
+  </si>
+  <si>
+    <t>Как вы поступите? Выберите один вариант и в поле ниже опишите, пожалуйста, почему вы выбрали этот вариант (2–4 предложения).</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:30:07</t>
+  </si>
+  <si>
+    <t>#25 опрос №5</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:29:48</t>
+  </si>
+  <si>
+    <t>#24 опрос №4</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:29:15</t>
+  </si>
+  <si>
+    <t>#23 опрос №3</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:28:35</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:27:13</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:25:51</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:24:47</t>
+  </si>
+  <si>
+    <t>#22 опрос №2</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:21:09</t>
+  </si>
+  <si>
+    <t>#21 опрос №1</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:19:03</t>
+  </si>
+  <si>
+    <t>Быстрая самооценка</t>
+  </si>
+  <si>
+    <t>#20 опрос №20</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:14:05</t>
+  </si>
+  <si>
+    <t>Новую информацию я обычно усваиваю довольно быстро и стараюсь применять её на практике.</t>
+  </si>
+  <si>
+    <t>#19 опрос №19</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:13:59</t>
+  </si>
+  <si>
+    <t>Когда вокруг много неопределённости, я могу надолго застрять в переживаниях и терять концентрацию.</t>
+  </si>
+  <si>
+    <t>#18 опрос №18</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:13:47</t>
+  </si>
+  <si>
+    <t>Мне комфортнее, когда от меня ждут понятных задач без высокой конкуренции или стремления выделяться.</t>
+  </si>
+  <si>
+    <t>#17 опрос №17</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:11:16</t>
+  </si>
+  <si>
+    <t>Я часто с энтузиазмом начинаю что-то новое, но мне трудно удерживать темп до финального результата.</t>
+  </si>
+  <si>
+    <t>#16 опрос №16</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:11:05</t>
+  </si>
+  <si>
+    <t>Когда прогресс идёт медленно, я могу быстро переключиться на другие, более лёгкие дела.</t>
+  </si>
+  <si>
+    <t>#15 опрос №15</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:10:57</t>
+  </si>
+  <si>
+    <t>Даже если результат проявится не сразу, я могу удерживать внимание на цели и продолжать двигаться.</t>
+  </si>
+  <si>
+    <t>#14 опрос №14</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:10:29</t>
+  </si>
+  <si>
+    <t>После неприятного разговора или сложного взаимодействия мне бывает трудно сразу продолжить работать в том же темпе.</t>
+  </si>
+  <si>
+    <t>#13 опрос №13</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:10:21</t>
+  </si>
+  <si>
+    <t>Перед тем как что-то предложить человеку, я стараюсь заранее оценить возможные риски и последствия.</t>
+  </si>
+  <si>
+    <t>#12 опрос №12</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:10:12</t>
+  </si>
+  <si>
+    <t>Если задач много, я иногда увлекаюсь процессом и теряю ощущение, что меня должно привести к результату.</t>
+  </si>
+  <si>
+    <t>#11 опрос №11</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:09:59</t>
+  </si>
+  <si>
+    <t>Если результат отложен или ситуация неясна, я всё равно могу действовать последовательно.</t>
+  </si>
+  <si>
+    <t>#10 опрос №10</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:09:42</t>
+  </si>
+  <si>
+    <t>Мне несложно подстраивать стиль общения под разных людей — я чувствую, как лучше выстроить контакт.</t>
+  </si>
+  <si>
+    <t>#9 опрос №9</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:09:34</t>
+  </si>
+  <si>
+    <t>Если привычный способ не работает, я обычно могу придумать альтернативный путь решения.</t>
+  </si>
+  <si>
+    <t>#8 опрос №8</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:08:40</t>
+  </si>
+  <si>
+    <t>В моём опыте были случаи, когда я последовательно двигался(лась) к важной для меня цели — в учёбе, спорте, проекте или другой сфере.</t>
+  </si>
+  <si>
+    <t>#7 опрос №7</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:08:24</t>
+  </si>
+  <si>
+    <t>Мне бывает сложно поддерживать фокус, если долго не видно ощутимых сдвигов.</t>
+  </si>
+  <si>
+    <t>#6 опрос №6</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:08:15</t>
+  </si>
+  <si>
+    <t>В напряжённых ситуациях мне удаётся сохранять спокойный и собранный тон общения.</t>
+  </si>
+  <si>
+    <t>#5 опрос №5</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:08:04</t>
+  </si>
+  <si>
+    <t>Мне нравится чувствовать, что мой вклад заметен, и я стремлюсь к более сильным и результативным ролям.</t>
+  </si>
+  <si>
+    <t>#4 опрос №4</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:07:54</t>
+  </si>
+  <si>
+    <t>Когда сталкиваюсь с нестандартной ситуацией, я могу растеряться и ждать чьей-то подсказки, вместо того чтобы пробовать другие варианты.</t>
+  </si>
+  <si>
+    <t>#3 опрос №3</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:07:11</t>
+  </si>
+  <si>
+    <t>Я могу долго идти к одной цели, даже если периодически сталкиваюсь с преградами.</t>
+  </si>
+  <si>
+    <t>#2 опрос №2</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:07:02</t>
+  </si>
+  <si>
+    <t>Мне важно понимать, какой итог я хочу получить, и я стараюсь подбирать действия, которые к нему ведут.</t>
+  </si>
+  <si>
+    <t>#1 опрос №1</t>
+  </si>
+  <si>
+    <t>2025-12-12 08:06:35</t>
+  </si>
+  <si>
+    <t>Когда сталкиваюсь с отказами или критикой, я относительно быстро возвращаюсь в рабочее состояние.</t>
+  </si>
+  <si>
+    <t>2025-12-12 07:59:43</t>
+  </si>
+  <si>
+    <t>2025-12-12 07:58:28</t>
+  </si>
+  <si>
+    <t>2025-12-11 06:59:22</t>
+  </si>
+  <si>
+    <t>2025-12-11 06:59:11</t>
+  </si>
+  <si>
+    <t>2025-12-11 06:59:03</t>
+  </si>
+  <si>
+    <t>2025-12-11 06:58:50</t>
+  </si>
+  <si>
+    <t>2025-12-11 06:58:39</t>
+  </si>
+  <si>
+    <t>2025-12-11 06:58:25</t>
+  </si>
+  <si>
+    <t>2025-12-10 09:58:01</t>
+  </si>
+  <si>
+    <t>2025-12-10 09:55:17</t>
+  </si>
+  <si>
+    <t>2025-12-10 09:54:49</t>
+  </si>
+  <si>
+    <t>2025-12-10 09:54:31</t>
+  </si>
+  <si>
+    <t>2025-12-10 09:54:22</t>
+  </si>
+  <si>
+    <t>2025-12-10 09:54:14</t>
+  </si>
+  <si>
+    <t>2025-12-10 09:53:53</t>
+  </si>
+  <si>
+    <t>2025-12-10 09:53:46</t>
+  </si>
+  <si>
+    <t>2025-12-10 09:53:33</t>
+  </si>
+  <si>
+    <t>2025-12-10 09:53:18</t>
+  </si>
+  <si>
+    <t>2025-12-10 09:53:10</t>
+  </si>
+  <si>
+    <t>2025-12-10 09:52:52</t>
+  </si>
+  <si>
+    <t>2025-12-10 09:52:45</t>
+  </si>
+  <si>
+    <t>2025-12-10 07:44:05</t>
+  </si>
+  <si>
+    <t>2025-12-04 11:09:35</t>
+  </si>
+  <si>
+    <t>2025-12-04 11:04:23</t>
+  </si>
+  <si>
+    <t>2025-12-04 11:01:15</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:55:43</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:49:41</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:47:11</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:44:17</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:43:00</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:41:27</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:37:54</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:37:46</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:37:37</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:37:30</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:37:21</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:37:08</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:37:02</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:36:39</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:36:32</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:35:19</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:35:08</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:35:00</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:34:52</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:34:43</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:34:29</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:34:16</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:34:11</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:34:00</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:33:53</t>
+  </si>
+  <si>
+    <t>2025-12-04 10:32:35</t>
+  </si>
+  <si>
     <t>Ситуационные кейсы</t>
-  </si>
-  <si>
-    <t>2025-12-12 09:10:19</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2025-12-12 09:07:36</t>
-  </si>
-  <si>
-    <t>2025-12-12 09:05:58</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:36:37</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:35:19</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:33:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дилеммы </t>
-  </si>
-  <si>
-    <t>#26 опрос №6</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:31:18</t>
-  </si>
-  <si>
-    <t>Как вы поступите? Выберите один вариант и в поле ниже опишите, пожалуйста, почему вы выбрали этот вариант (2–4 предложения).</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:30:07</t>
-  </si>
-  <si>
-    <t>#25 опрос №5</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:29:48</t>
-  </si>
-  <si>
-    <t>#24 опрос №4</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:29:15</t>
-  </si>
-  <si>
-    <t>#23 опрос №3</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:28:35</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:27:13</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:25:51</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:24:47</t>
-  </si>
-  <si>
-    <t>#22 опрос №2</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:21:09</t>
-  </si>
-  <si>
-    <t>#21 опрос №1</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:19:03</t>
-  </si>
-  <si>
-    <t>Быстрая самооценка</t>
-  </si>
-  <si>
-    <t>#20 опрос №20</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:14:05</t>
-  </si>
-  <si>
-    <t>Новую информацию я обычно усваиваю довольно быстро и стараюсь применять её на практике.</t>
-  </si>
-  <si>
-    <t>#19 опрос №19</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:13:59</t>
-  </si>
-  <si>
-    <t>Когда вокруг много неопределённости, я могу надолго застрять в переживаниях и терять концентрацию.</t>
-  </si>
-  <si>
-    <t>#18 опрос №18</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:13:47</t>
-  </si>
-  <si>
-    <t>Мне комфортнее, когда от меня ждут понятных задач без высокой конкуренции или стремления выделяться.</t>
-  </si>
-  <si>
-    <t>#17 опрос №17</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:11:16</t>
-  </si>
-  <si>
-    <t>Я часто с энтузиазмом начинаю что-то новое, но мне трудно удерживать темп до финального результата.</t>
-  </si>
-  <si>
-    <t>#16 опрос №16</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:11:05</t>
-  </si>
-  <si>
-    <t>Когда прогресс идёт медленно, я могу быстро переключиться на другие, более лёгкие дела.</t>
-  </si>
-  <si>
-    <t>#15 опрос №15</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:10:57</t>
-  </si>
-  <si>
-    <t>Даже если результат проявится не сразу, я могу удерживать внимание на цели и продолжать двигаться.</t>
-  </si>
-  <si>
-    <t>#14 опрос №14</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:10:29</t>
-  </si>
-  <si>
-    <t>После неприятного разговора или сложного взаимодействия мне бывает трудно сразу продолжить работать в том же темпе.</t>
-  </si>
-  <si>
-    <t>#13 опрос №13</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:10:21</t>
-  </si>
-  <si>
-    <t>Перед тем как что-то предложить человеку, я стараюсь заранее оценить возможные риски и последствия.</t>
-  </si>
-  <si>
-    <t>#12 опрос №12</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:10:12</t>
-  </si>
-  <si>
-    <t>Если задач много, я иногда увлекаюсь процессом и теряю ощущение, что меня должно привести к результату.</t>
-  </si>
-  <si>
-    <t>#11 опрос №11</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:09:59</t>
-  </si>
-  <si>
-    <t>Если результат отложен или ситуация неясна, я всё равно могу действовать последовательно.</t>
-  </si>
-  <si>
-    <t>#10 опрос №10</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:09:42</t>
-  </si>
-  <si>
-    <t>Мне несложно подстраивать стиль общения под разных людей — я чувствую, как лучше выстроить контакт.</t>
-  </si>
-  <si>
-    <t>#9 опрос №9</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:09:34</t>
-  </si>
-  <si>
-    <t>Если привычный способ не работает, я обычно могу придумать альтернативный путь решения.</t>
-  </si>
-  <si>
-    <t>#8 опрос №8</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:08:40</t>
-  </si>
-  <si>
-    <t>В моём опыте были случаи, когда я последовательно двигался(лась) к важной для меня цели — в учёбе, спорте, проекте или другой сфере.</t>
-  </si>
-  <si>
-    <t>#7 опрос №7</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:08:24</t>
-  </si>
-  <si>
-    <t>Мне бывает сложно поддерживать фокус, если долго не видно ощутимых сдвигов.</t>
-  </si>
-  <si>
-    <t>#6 опрос №6</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:08:15</t>
-  </si>
-  <si>
-    <t>В напряжённых ситуациях мне удаётся сохранять спокойный и собранный тон общения.</t>
-  </si>
-  <si>
-    <t>#5 опрос №5</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:08:04</t>
-  </si>
-  <si>
-    <t>Мне нравится чувствовать, что мой вклад заметен, и я стремлюсь к более сильным и результативным ролям.</t>
-  </si>
-  <si>
-    <t>#4 опрос №4</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:07:54</t>
-  </si>
-  <si>
-    <t>Когда сталкиваюсь с нестандартной ситуацией, я могу растеряться и ждать чьей-то подсказки, вместо того чтобы пробовать другие варианты.</t>
-  </si>
-  <si>
-    <t>#3 опрос №3</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:07:11</t>
-  </si>
-  <si>
-    <t>Я могу долго идти к одной цели, даже если периодически сталкиваюсь с преградами.</t>
-  </si>
-  <si>
-    <t>#2 опрос №2</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:07:02</t>
-  </si>
-  <si>
-    <t>Мне важно понимать, какой итог я хочу получить, и я стараюсь подбирать действия, которые к нему ведут.</t>
-  </si>
-  <si>
-    <t>#1 опрос №1</t>
-  </si>
-  <si>
-    <t>2025-12-12 08:06:35</t>
-  </si>
-  <si>
-    <t>Когда сталкиваюсь с отказами или критикой, я относительно быстро возвращаюсь в рабочее состояние.</t>
-  </si>
-  <si>
-    <t>2025-12-12 07:59:43</t>
-  </si>
-  <si>
-    <t>2025-12-12 07:58:28</t>
-  </si>
-  <si>
-    <t>2025-12-11 06:59:22</t>
-  </si>
-  <si>
-    <t>2025-12-11 06:59:11</t>
-  </si>
-  <si>
-    <t>2025-12-11 06:59:03</t>
-  </si>
-  <si>
-    <t>2025-12-11 06:58:50</t>
-  </si>
-  <si>
-    <t>2025-12-11 06:58:39</t>
-  </si>
-  <si>
-    <t>2025-12-11 06:58:25</t>
-  </si>
-  <si>
-    <t>2025-12-10 09:58:01</t>
-  </si>
-  <si>
-    <t>2025-12-10 09:55:17</t>
-  </si>
-  <si>
-    <t>2025-12-10 09:54:49</t>
-  </si>
-  <si>
-    <t>2025-12-10 09:54:31</t>
-  </si>
-  <si>
-    <t>2025-12-10 09:54:22</t>
-  </si>
-  <si>
-    <t>2025-12-10 09:54:14</t>
-  </si>
-  <si>
-    <t>2025-12-10 09:53:53</t>
-  </si>
-  <si>
-    <t>2025-12-10 09:53:46</t>
-  </si>
-  <si>
-    <t>2025-12-10 09:53:33</t>
-  </si>
-  <si>
-    <t>2025-12-10 09:53:18</t>
-  </si>
-  <si>
-    <t>2025-12-10 09:53:10</t>
-  </si>
-  <si>
-    <t>2025-12-10 09:52:52</t>
-  </si>
-  <si>
-    <t>2025-12-10 09:52:45</t>
-  </si>
-  <si>
-    <t>2025-12-10 07:44:05</t>
-  </si>
-  <si>
-    <t>2025-12-04 11:09:35</t>
-  </si>
-  <si>
-    <t>2025-12-04 11:04:23</t>
-  </si>
-  <si>
-    <t>2025-12-04 11:01:15</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:55:43</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:49:41</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:47:11</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:44:17</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:43:00</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:41:27</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:37:54</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:37:46</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:37:37</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:37:30</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:37:21</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:37:08</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:37:02</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:36:39</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:36:32</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:35:19</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:35:08</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:35:00</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:34:52</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:34:43</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:34:29</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:34:16</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:34:11</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:34:00</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:33:53</t>
-  </si>
-  <si>
-    <t>2025-12-04 10:32:35</t>
   </si>
   <si>
     <t>Фамилия</t>
@@ -829,19 +838,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -877,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -886,9 +889,6 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1209,7 +1209,7 @@
     <col min="5" max="5" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="4" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="11" max="11" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -1227,25 +1227,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>70</v>
@@ -1254,36 +1254,36 @@
         <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
@@ -1291,18 +1291,18 @@
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H2" s="4">
+        <v>233</v>
+      </c>
+      <c r="H2" s="3">
         <v>100</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1310,18 +1310,18 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -1329,39 +1329,39 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H3" s="4">
+        <v>233</v>
+      </c>
+      <c r="H3" s="3">
         <v>100</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -1369,18 +1369,18 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H4" s="4">
+        <v>233</v>
+      </c>
+      <c r="H4" s="3">
         <v>100</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1388,10 +1388,10 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1416,7 +1416,7 @@
     <col min="4" max="4" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="2" width="37.71928571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
     <col min="10" max="10" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
@@ -1424,7 +1424,7 @@
     <col min="12" max="12" style="2" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="17.25" hidden="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1500,13 +1500,13 @@
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>77</v>
@@ -1530,13 +1530,13 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>77</v>
@@ -1566,7 +1566,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>77</v>
@@ -1590,13 +1590,13 @@
         <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>77</v>
@@ -1620,13 +1620,13 @@
         <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>77</v>
@@ -1642,7 +1642,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25" hidden="1">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1650,16 +1650,16 @@
         <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>43</v>
@@ -1678,13 +1678,13 @@
         <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>77</v>
@@ -1700,7 +1700,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25" hidden="1">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1708,16 +1708,16 @@
         <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>42</v>
@@ -1728,7 +1728,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25" hidden="1">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1736,16 +1736,16 @@
         <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>41</v>
@@ -1756,7 +1756,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25" hidden="1">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -1764,16 +1764,16 @@
         <v>33</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>40</v>
@@ -1784,7 +1784,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25" hidden="1">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -1792,16 +1792,16 @@
         <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>60</v>
@@ -1812,7 +1812,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25" hidden="1">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -1820,16 +1820,16 @@
         <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>59</v>
@@ -1840,7 +1840,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25" hidden="1">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -1848,16 +1848,16 @@
         <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>58</v>
@@ -1868,7 +1868,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="17.25" hidden="1">
       <c r="A16" s="1" t="s">
         <v>54</v>
       </c>
@@ -1876,16 +1876,16 @@
         <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>57</v>
@@ -1896,7 +1896,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="17.25" hidden="1">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -1904,16 +1904,16 @@
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>56</v>
@@ -1924,7 +1924,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="17.25" hidden="1">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -1932,16 +1932,16 @@
         <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>34</v>
@@ -1952,7 +1952,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25" hidden="1">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -1960,16 +1960,16 @@
         <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>36</v>
@@ -1980,7 +1980,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="17.25" hidden="1">
       <c r="A20" s="1" t="s">
         <v>54</v>
       </c>
@@ -1988,16 +1988,16 @@
         <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>36</v>
@@ -2008,7 +2008,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="17.25" hidden="1">
       <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
@@ -2016,16 +2016,16 @@
         <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>36</v>
@@ -2036,7 +2036,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="17.25" hidden="1">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -2044,16 +2044,16 @@
         <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>34</v>
@@ -2064,7 +2064,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="17.25" hidden="1">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -2072,16 +2072,16 @@
         <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>37</v>
@@ -2092,7 +2092,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="17.25" hidden="1">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
@@ -2100,16 +2100,16 @@
         <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>36</v>
@@ -2120,7 +2120,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="17.25" hidden="1">
       <c r="A25" s="1" t="s">
         <v>54</v>
       </c>
@@ -2128,16 +2128,16 @@
         <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>34</v>
@@ -2148,7 +2148,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25" hidden="1">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -2156,16 +2156,16 @@
         <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>37</v>
@@ -2176,7 +2176,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25" hidden="1">
       <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
@@ -2184,16 +2184,16 @@
         <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>34</v>
@@ -2204,7 +2204,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25" hidden="1">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -2212,16 +2212,16 @@
         <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>37</v>
@@ -2232,7 +2232,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25" hidden="1">
       <c r="A29" s="1" t="s">
         <v>54</v>
       </c>
@@ -2240,16 +2240,16 @@
         <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>37</v>
@@ -2260,7 +2260,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25" hidden="1">
       <c r="A30" s="1" t="s">
         <v>54</v>
       </c>
@@ -2268,16 +2268,16 @@
         <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>34</v>
@@ -2288,7 +2288,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25" hidden="1">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -2296,16 +2296,16 @@
         <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>37</v>
@@ -2316,7 +2316,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25" hidden="1">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
@@ -2324,16 +2324,16 @@
         <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>37</v>
@@ -2344,7 +2344,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25" hidden="1">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
@@ -2352,16 +2352,16 @@
         <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>34</v>
@@ -2372,7 +2372,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25" hidden="1">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -2380,16 +2380,16 @@
         <v>55</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>36</v>
@@ -2400,7 +2400,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25" hidden="1">
       <c r="A35" s="1" t="s">
         <v>54</v>
       </c>
@@ -2408,16 +2408,16 @@
         <v>55</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>37</v>
@@ -2428,7 +2428,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25" hidden="1">
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
@@ -2436,16 +2436,16 @@
         <v>55</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>34</v>
@@ -2456,7 +2456,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25" hidden="1">
       <c r="A37" s="1" t="s">
         <v>54</v>
       </c>
@@ -2464,16 +2464,16 @@
         <v>55</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>34</v>
@@ -2484,7 +2484,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25" hidden="1">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
@@ -2492,16 +2492,16 @@
         <v>33</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>39</v>
@@ -2512,7 +2512,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25" hidden="1">
       <c r="A39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2520,16 +2520,16 @@
         <v>33</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>38</v>
@@ -2540,7 +2540,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25" hidden="1">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,16 +2548,16 @@
         <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>37</v>
@@ -2568,7 +2568,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25" hidden="1">
       <c r="A41" s="1" t="s">
         <v>32</v>
       </c>
@@ -2576,16 +2576,16 @@
         <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>36</v>
@@ -2596,7 +2596,7 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25" hidden="1">
       <c r="A42" s="1" t="s">
         <v>32</v>
       </c>
@@ -2604,16 +2604,16 @@
         <v>33</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>37</v>
@@ -2624,7 +2624,7 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25" hidden="1">
       <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
@@ -2632,16 +2632,16 @@
         <v>33</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>37</v>
@@ -2652,7 +2652,7 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25" hidden="1">
       <c r="A44" s="1" t="s">
         <v>32</v>
       </c>
@@ -2660,16 +2660,16 @@
         <v>33</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>37</v>
@@ -2680,7 +2680,7 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25" hidden="1">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -2688,16 +2688,16 @@
         <v>33</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>34</v>
@@ -2708,7 +2708,7 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25" hidden="1">
       <c r="A46" s="1" t="s">
         <v>32</v>
       </c>
@@ -2716,16 +2716,16 @@
         <v>33</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>37</v>
@@ -2736,7 +2736,7 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25" hidden="1">
       <c r="A47" s="1" t="s">
         <v>32</v>
       </c>
@@ -2744,16 +2744,16 @@
         <v>33</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>34</v>
@@ -2764,7 +2764,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25" hidden="1">
       <c r="A48" s="1" t="s">
         <v>32</v>
       </c>
@@ -2772,16 +2772,16 @@
         <v>33</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>37</v>
@@ -2792,7 +2792,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25" hidden="1">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
@@ -2800,16 +2800,16 @@
         <v>33</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>34</v>
@@ -2820,7 +2820,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25" hidden="1">
       <c r="A50" s="1" t="s">
         <v>32</v>
       </c>
@@ -2828,16 +2828,16 @@
         <v>33</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>34</v>
@@ -2848,7 +2848,7 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25" hidden="1">
       <c r="A51" s="1" t="s">
         <v>32</v>
       </c>
@@ -2856,16 +2856,16 @@
         <v>33</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>37</v>
@@ -2876,7 +2876,7 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25" hidden="1">
       <c r="A52" s="1" t="s">
         <v>32</v>
       </c>
@@ -2884,16 +2884,16 @@
         <v>33</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>34</v>
@@ -2904,7 +2904,7 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25" hidden="1">
       <c r="A53" s="1" t="s">
         <v>32</v>
       </c>
@@ -2912,16 +2912,16 @@
         <v>33</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>36</v>
@@ -2932,7 +2932,7 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25" hidden="1">
       <c r="A54" s="1" t="s">
         <v>32</v>
       </c>
@@ -2940,16 +2940,16 @@
         <v>33</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>34</v>
@@ -2960,7 +2960,7 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25" hidden="1">
       <c r="A55" s="1" t="s">
         <v>32</v>
       </c>
@@ -2968,16 +2968,16 @@
         <v>33</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>34</v>
@@ -2988,7 +2988,7 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25" hidden="1">
       <c r="A56" s="1" t="s">
         <v>32</v>
       </c>
@@ -2996,16 +2996,16 @@
         <v>33</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>35</v>
@@ -3016,7 +3016,7 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25" hidden="1">
       <c r="A57" s="1" t="s">
         <v>32</v>
       </c>
@@ -3024,16 +3024,16 @@
         <v>33</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>34</v>
@@ -3044,7 +3044,7 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25" hidden="1">
       <c r="A58" s="1" t="s">
         <v>32</v>
       </c>
@@ -3052,16 +3052,16 @@
         <v>33</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>34</v>
@@ -3072,7 +3072,7 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25" hidden="1">
       <c r="A59" s="1" t="s">
         <v>32</v>
       </c>
@@ -3080,16 +3080,16 @@
         <v>33</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>34</v>
@@ -3100,7 +3100,7 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="133.5">
       <c r="A60" s="1" t="s">
         <v>48</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>30</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>77</v>
@@ -3138,13 +3138,13 @@
         <v>49</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>77</v>
@@ -3160,7 +3160,7 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="88.5">
       <c r="A62" s="1" t="s">
         <v>48</v>
       </c>
@@ -3168,13 +3168,13 @@
         <v>49</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>77</v>
@@ -3190,7 +3190,7 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25" hidden="1">
       <c r="A63" s="1" t="s">
         <v>48</v>
       </c>
@@ -3198,16 +3198,16 @@
         <v>49</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>47</v>
@@ -3218,7 +3218,7 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25" hidden="1">
       <c r="A64" s="1" t="s">
         <v>48</v>
       </c>
@@ -3226,16 +3226,16 @@
         <v>49</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>47</v>
@@ -3246,7 +3246,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25" hidden="1">
       <c r="A65" s="1" t="s">
         <v>48</v>
       </c>
@@ -3254,16 +3254,16 @@
         <v>49</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>47</v>
@@ -3274,7 +3274,7 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25" hidden="1">
       <c r="A66" s="1" t="s">
         <v>48</v>
       </c>
@@ -3282,16 +3282,16 @@
         <v>49</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>47</v>
@@ -3302,7 +3302,7 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25" hidden="1">
       <c r="A67" s="1" t="s">
         <v>48</v>
       </c>
@@ -3310,16 +3310,16 @@
         <v>49</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>50</v>
@@ -3330,7 +3330,7 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25" hidden="1">
       <c r="A68" s="1" t="s">
         <v>48</v>
       </c>
@@ -3338,16 +3338,16 @@
         <v>49</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>47</v>
@@ -3358,7 +3358,7 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25" hidden="1">
       <c r="A69" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,16 +3366,16 @@
         <v>49</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>37</v>
@@ -3386,7 +3386,7 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25" hidden="1">
       <c r="A70" s="1" t="s">
         <v>48</v>
       </c>
@@ -3394,16 +3394,16 @@
         <v>49</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>36</v>
@@ -3414,7 +3414,7 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25" hidden="1">
       <c r="A71" s="1" t="s">
         <v>48</v>
       </c>
@@ -3422,16 +3422,16 @@
         <v>49</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>36</v>
@@ -3442,7 +3442,7 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25" hidden="1">
       <c r="A72" s="1" t="s">
         <v>48</v>
       </c>
@@ -3450,16 +3450,16 @@
         <v>49</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>35</v>
@@ -3470,7 +3470,7 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25" hidden="1">
       <c r="A73" s="1" t="s">
         <v>48</v>
       </c>
@@ -3478,16 +3478,16 @@
         <v>49</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>37</v>
@@ -3498,7 +3498,7 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25" hidden="1">
       <c r="A74" s="1" t="s">
         <v>48</v>
       </c>
@@ -3506,16 +3506,16 @@
         <v>49</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>37</v>
@@ -3526,7 +3526,7 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25" hidden="1">
       <c r="A75" s="1" t="s">
         <v>48</v>
       </c>
@@ -3534,16 +3534,16 @@
         <v>49</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>36</v>
@@ -3554,7 +3554,7 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25" hidden="1">
       <c r="A76" s="1" t="s">
         <v>48</v>
       </c>
@@ -3562,16 +3562,16 @@
         <v>49</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>37</v>
@@ -3582,7 +3582,7 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25" hidden="1">
       <c r="A77" s="1" t="s">
         <v>48</v>
       </c>
@@ -3590,16 +3590,16 @@
         <v>49</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>36</v>
@@ -3610,7 +3610,7 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25" hidden="1">
       <c r="A78" s="1" t="s">
         <v>48</v>
       </c>
@@ -3618,16 +3618,16 @@
         <v>49</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>37</v>
@@ -3638,7 +3638,7 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25" hidden="1">
       <c r="A79" s="1" t="s">
         <v>48</v>
       </c>
@@ -3646,16 +3646,16 @@
         <v>49</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>34</v>
@@ -3666,7 +3666,7 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25" hidden="1">
       <c r="A80" s="1" t="s">
         <v>48</v>
       </c>
@@ -3674,16 +3674,16 @@
         <v>49</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>37</v>
@@ -3694,7 +3694,7 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25" hidden="1">
       <c r="A81" s="1" t="s">
         <v>48</v>
       </c>
@@ -3702,16 +3702,16 @@
         <v>49</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>34</v>
@@ -3722,7 +3722,7 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25" hidden="1">
       <c r="A82" s="1" t="s">
         <v>48</v>
       </c>
@@ -3730,16 +3730,16 @@
         <v>49</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>36</v>
@@ -3750,7 +3750,7 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25" hidden="1">
       <c r="A83" s="1" t="s">
         <v>48</v>
       </c>
@@ -3758,16 +3758,16 @@
         <v>49</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>37</v>
@@ -3778,7 +3778,7 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25" hidden="1">
       <c r="A84" s="1" t="s">
         <v>48</v>
       </c>
@@ -3786,16 +3786,16 @@
         <v>49</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>34</v>
@@ -3806,7 +3806,7 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25" hidden="1">
       <c r="A85" s="1" t="s">
         <v>48</v>
       </c>
@@ -3814,16 +3814,16 @@
         <v>49</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>36</v>
@@ -3834,7 +3834,7 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25" hidden="1">
       <c r="A86" s="1" t="s">
         <v>48</v>
       </c>
@@ -3842,16 +3842,16 @@
         <v>49</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>37</v>
@@ -3862,7 +3862,7 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25" hidden="1">
       <c r="A87" s="1" t="s">
         <v>48</v>
       </c>
@@ -3870,16 +3870,16 @@
         <v>49</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>34</v>
@@ -3890,7 +3890,7 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25" hidden="1">
       <c r="A88" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,16 +3898,16 @@
         <v>49</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>37</v>
@@ -3918,7 +3918,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25" hidden="1">
       <c r="A89" s="1" t="s">
         <v>54</v>
       </c>
@@ -3926,16 +3926,16 @@
         <v>55</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E89" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>47</v>
@@ -3954,7 +3954,7 @@
         <v>33</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>31</v>
@@ -3988,7 +3988,7 @@
         <v>49</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>31</v>
